--- a/202301 Табель ОГМ ПК 250.xlsx
+++ b/202301 Табель ОГМ ПК 250.xlsx
@@ -185,7 +185,7 @@
       <sz val="7"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -207,7 +207,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFBCE6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE6FF"/>
+        <bgColor rgb="FFBCFFF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCFFF6"/>
+        <bgColor rgb="FFBCE6FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,19 +231,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4F6B4"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFBCFFF6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0064A064"/>
-        <bgColor rgb="0064A064"/>
+        <fgColor rgb="00BCE6FF"/>
+        <bgColor rgb="00BCE6FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4F6B4"/>
-        <bgColor rgb="00B4F6B4"/>
+        <fgColor rgb="00BCFFF6"/>
+        <bgColor rgb="00BCFFF6"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,10 +548,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -670,10 +682,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -730,10 +742,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -775,11 +787,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFE6E6FF"/>
+      <rgbColor rgb="FFBCFFF6"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE6E6FF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -789,7 +801,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFBCE6FF"/>
       <rgbColor rgb="FFB4F6B4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -1110,7 +1122,7 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR42" activeCellId="0" sqref="AR42:AU43"/>
+      <selection pane="topLeft" activeCell="V45" activeCellId="0" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>

--- a/202301 Табель ОГМ ПК 250.xlsx
+++ b/202301 Табель ОГМ ПК 250.xlsx
@@ -185,7 +185,7 @@
       <sz val="7"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -219,19 +219,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCFFF6"/>
-        <bgColor rgb="FFBCE6FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF64A064"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4F6B4"/>
-        <bgColor rgb="FFBCFFF6"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -548,10 +536,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -682,10 +670,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -802,7 +790,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFBCE6FF"/>
-      <rgbColor rgb="FFB4F6B4"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -817,7 +805,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF64A064"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF663300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1122,7 +1110,7 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V45" activeCellId="0" sqref="V45"/>
+      <selection pane="topLeft" activeCell="AI45" activeCellId="0" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -1983,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="AU14" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" s="66">
@@ -2058,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="AU15" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" s="66">
@@ -2194,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="AU17" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" s="66">
@@ -2330,7 +2318,7 @@
         <v>17</v>
       </c>
       <c r="AU19" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" s="66">
@@ -2405,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="AU20" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" s="66">
@@ -2478,7 +2466,7 @@
         <v>17</v>
       </c>
       <c r="AU21" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" s="66">
@@ -2553,7 +2541,7 @@
         <v>17</v>
       </c>
       <c r="AU22" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" s="66">
@@ -2687,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="AU24" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" s="66">
@@ -3219,7 +3207,7 @@
         <v>17</v>
       </c>
       <c r="AU34" s="105" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" s="66">
@@ -5031,7 +5019,7 @@
       </c>
       <c r="AI45" s="131" t="inlineStr">
         <is>
-          <t>Р</t>
+          <t>Р*</t>
         </is>
       </c>
       <c r="AJ45" s="65" t="n"/>
@@ -5262,7 +5250,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation sqref="E45:AI45" showErrorMessage="1" showDropDown="0" showInputMessage="0" allowBlank="1" type="list" errorStyle="stop" operator="equal">
-      <formula1>"В,Р,х"</formula1>
+      <formula1>"В,Р,Р*,х"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
